--- a/FindExternalLinksTool/ExternalLinksSample.xlsx
+++ b/FindExternalLinksTool/ExternalLinksSample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="セル" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>セル参照</t>
     <rPh sb="2" eb="4">
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DataBar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>xlErrorsCondition</t>
   </si>
   <si>
@@ -382,35 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>図形（リンク参照あり、マクロ登録あり）</t>
-    <rPh sb="0" eb="2">
-      <t>ズケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループ化図形（リンク参照あり、マクロ登録あり）</t>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ズケイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スマートアート（マクロ登録あり）</t>
     <rPh sb="11" eb="13">
       <t>トウロク</t>
@@ -432,16 +399,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リンクされた図(リンク参照あり）</t>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>図形（ブックリンクなし）</t>
     <rPh sb="0" eb="2">
       <t>ズケイ</t>
@@ -456,8 +413,101 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタン（リンク参照、マクロ登録）</t>
+    <t>チェックボックス（リンクするセル）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピンボックス（マクロ登録）</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ化オプションボタン（リンクするセル）</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル（リンク参照）</t>
     <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロールバー（マクロ登録あり）</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActiveXコントロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン（セル参照、マクロ登録）</t>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループボックス（セル参照）</t>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボボックス（入力範囲、リンクするセル）</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストボックス（マクロ登録あり）</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ化図形（セル参照あり、マクロ登録あり）</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図形（セル参照あり、マクロ登録あり）</t>
+    <rPh sb="0" eb="2">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>サンショウ</t>
     </rPh>
     <rPh sb="13" eb="15">
@@ -466,53 +516,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェックボックス（リンクするセル）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スピンボックス（マクロ登録）</t>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
+    <t>リンクされた図(セル参照あり）</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンボボックス（リスト範囲、リンクするセル）</t>
-    <rPh sb="11" eb="13">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループ化オプションボタン（リンクするセル）</t>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループボックス（リンク参照）</t>
-    <rPh sb="12" eb="14">
+    <rPh sb="10" eb="12">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラベル（リンク参照）</t>
-    <rPh sb="7" eb="9">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクロールバー（マクロ登録あり）</t>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ActiveXコントロール</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1751,6 +1761,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="[1]Sheet1!$A$24" horiz="1" max="100" page="10" val="81"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="22" noThreeD="1" sel="0" val="0"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="[1]Sheet1!$G$1" fmlaRange="[1]Sheet1!$A$2:$A$11" noThreeD="1" sel="0" val="0"/>
 </file>
@@ -4746,7 +4760,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3099"/>
+                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3107"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5623,6 +5637,61 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>19049</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>676274</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4108" name="List Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4108"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -5978,7 +6047,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6080,7 +6151,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6321,7 +6392,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
@@ -6362,13 +6433,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -6410,13 +6481,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>25</v>
@@ -6457,16 +6528,16 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>26</v>
@@ -6504,16 +6575,16 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3">
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
@@ -6547,19 +6618,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -6595,13 +6666,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
@@ -6610,45 +6681,45 @@
         <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="J13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
@@ -6658,57 +6729,57 @@
       </c>
       <c r="F14" s="6">
         <f ca="1">TODAY()</f>
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="G14" s="6">
         <f ca="1">F14+1</f>
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ref="H14:O14" ca="1" si="0">G14+1</f>
-        <v>45764</v>
+        <v>45765</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45765</v>
+        <v>45766</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45768</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45769</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45771</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -6746,16 +6817,16 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -6937,8 +7008,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6948,39 +7019,39 @@
   <sheetData>
     <row r="2" spans="2:22">
       <c r="B2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:22">
       <c r="R3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:22"/>
     <row r="8" spans="2:22">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:22">
       <c r="J13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="18:18">
       <c r="R24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -7025,46 +7096,51 @@
   <dimension ref="B2:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="O9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7318,6 +7394,28 @@
         </control>
       </mc:Choice>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4108" r:id="rId15" name="List Box 12">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[1]!テスト用">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+    </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
--- a/FindExternalLinksTool/ExternalLinksSample.xlsx
+++ b/FindExternalLinksTool/ExternalLinksSample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.20.240\share-ChiEne\07_個人フォルダ\950570_金子理恵\作成ツール\外部参照リンク検索ツール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.kaneko\Documents\github\ExcelVBA_Tips\FindExternalLinksTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="セル" sheetId="1" r:id="rId1"/>
@@ -4760,7 +4760,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3107"/>
+                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3108"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5642,13 +5642,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>19049</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>676274</xdr:colOff>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -5700,8 +5700,8 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet3"/>
       <sheetName val="Sheet2"/>
-      <sheetName val="リンク先ファイル"/>
     </sheetNames>
     <definedNames>
       <definedName name="テスト用"/>
@@ -5775,7 +5775,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6047,7 +6047,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6729,43 +6729,43 @@
       </c>
       <c r="F14" s="6">
         <f ca="1">TODAY()</f>
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="G14" s="6">
         <f ca="1">F14+1</f>
-        <v>45764</v>
+        <v>45765</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ref="H14:O14" ca="1" si="0">G14+1</f>
-        <v>45765</v>
+        <v>45766</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45768</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45769</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -6908,7 +6908,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="greaterThanOrEqual" id="{B5D08171-0D8F-49E5-9022-55CC9077CA1E}">
-            <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6923,13 +6923,13 @@
           <x14:cfRule type="colorScale" priority="11" id="{7CEA17CC-A153-48CC-A4DA-F701262C1144}">
             <x14:colorScale>
               <x14:cfvo type="num">
-                <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:color rgb="FFF8696B"/>
               <x14:color rgb="FFFFEB84"/>
@@ -6942,10 +6942,10 @@
           <x14:cfRule type="dataBar" priority="10" id="{AC216764-2809-4EFB-ADAB-98E614BF249F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
-                <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:fillColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -6956,7 +6956,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="8" id="{E09C0815-92C0-4FAB-B9EB-FA35F34AB72B}">
-            <xm:f>F9='C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>F9='\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6974,10 +6974,10 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
@@ -6985,8 +6985,8 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{021AFE35-EA44-4F80-BB57-E32BEB18E936}">
-            <xm:f>NOT(ISERROR(SEARCH('C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!,F13)))</xm:f>
-            <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!,F13)))</xm:f>
+            <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7008,7 +7008,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
@@ -7146,13 +7146,14 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4107" r:id="rId3" name="CommandButton1">
-          <controlPr autoLine="0" r:id="rId4">
+        <control shapeId="4107" r:id="rId4" name="CommandButton1">
+          <controlPr autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
@@ -7171,12 +7172,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4107" r:id="rId3" name="CommandButton1"/>
+        <control shapeId="4107" r:id="rId4" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId5" name="Button 1">
+        <control shapeId="4097" r:id="rId6" name="Button 1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!テスト用">
             <anchor moveWithCells="1">
               <from>
@@ -7198,7 +7199,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="Drop Down 2">
+        <control shapeId="4098" r:id="rId7" name="Drop Down 2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -7220,7 +7221,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId7" name="Check Box 3">
+        <control shapeId="4099" r:id="rId8" name="Check Box 3">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -7242,7 +7243,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId8" name="Spinner 4">
+        <control shapeId="4100" r:id="rId9" name="Spinner 4">
           <controlPr defaultSize="0" autoPict="0" macro="[1]!テスト用">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -7264,7 +7265,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId9" name="Option Button 5">
+        <control shapeId="4101" r:id="rId10" name="Option Button 5">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -7286,7 +7287,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4102" r:id="rId10" name="Option Button 6">
+        <control shapeId="4102" r:id="rId11" name="Option Button 6">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -7308,7 +7309,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4103" r:id="rId11" name="Option Button 7">
+        <control shapeId="4103" r:id="rId12" name="Option Button 7">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -7330,7 +7331,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4104" r:id="rId12" name="Group Box 8">
+        <control shapeId="4104" r:id="rId13" name="Group Box 8">
           <controlPr defaultSize="0" autoFill="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -7352,7 +7353,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4105" r:id="rId13" name="Label 9">
+        <control shapeId="4105" r:id="rId14" name="Label 9">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -7374,7 +7375,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4106" r:id="rId14" name="Scroll Bar 10">
+        <control shapeId="4106" r:id="rId15" name="Scroll Bar 10">
           <controlPr defaultSize="0" autoPict="0" macro="[1]!テスト用">
             <anchor moveWithCells="1">
               <from>
@@ -7396,7 +7397,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4108" r:id="rId15" name="List Box 12">
+        <control shapeId="4108" r:id="rId16" name="List Box 12">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[1]!テスト用">
             <anchor moveWithCells="1">
               <from>

--- a/FindExternalLinksTool/ExternalLinksSample.xlsx
+++ b/FindExternalLinksTool/ExternalLinksSample.xlsx
@@ -4760,7 +4760,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3108"/>
+                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3109"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5702,6 +5702,7 @@
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet3"/>
       <sheetName val="Sheet2"/>
+      <sheetName val="リンク先ファイル"/>
     </sheetNames>
     <definedNames>
       <definedName name="テスト用"/>
@@ -5776,6 +5777,7 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/FindExternalLinksTool/ExternalLinksSample.xlsx
+++ b/FindExternalLinksTool/ExternalLinksSample.xlsx
@@ -298,9 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>xlIconSet</t>
-  </si>
-  <si>
     <t>アイコン セット</t>
   </si>
   <si>
@@ -523,6 +520,10 @@
     <rPh sb="10" eb="12">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xlIconSets</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4760,7 +4761,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3109"/>
+                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3112"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6153,7 +6154,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6394,7 +6395,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
@@ -6530,16 +6531,16 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>26</v>
@@ -6577,16 +6578,16 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3">
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
@@ -6620,19 +6621,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -6668,13 +6669,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
@@ -6683,45 +6684,45 @@
         <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="J13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
@@ -6772,16 +6773,16 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -6819,16 +6820,16 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -7021,39 +7022,39 @@
   <sheetData>
     <row r="2" spans="2:22">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:22">
       <c r="R3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:22"/>
     <row r="8" spans="2:22">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:22">
       <c r="J13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="18:18">
       <c r="R24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -7105,44 +7106,44 @@
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:17">
       <c r="O9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/FindExternalLinksTool/ExternalLinksSample.xlsx
+++ b/FindExternalLinksTool/ExternalLinksSample.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>セル参照</t>
     <rPh sb="2" eb="4">
@@ -524,6 +524,26 @@
   </si>
   <si>
     <t>xlIconSets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力規則 リスト リンクあり 結合セル</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクキソク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セル参照 結合セル</t>
+    <rPh sb="2" eb="4">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケツゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -666,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,6 +707,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4761,7 +4784,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3112"/>
+                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3117"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4905,6 +4928,200 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7639050" y="1514475"/>
+          <a:ext cx="2390775" cy="1000125"/>
+          <a:chOff x="4800600" y="476250"/>
+          <a:chExt cx="2390775" cy="1000125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="[1]!テスト用" textlink="[1]Sheet1!$A$1">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4800600" y="476250"/>
+            <a:ext cx="1695450" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:fld id="{8C2F3B7E-13C5-42E3-BEB8-A88022108D9E}" type="TxLink">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="游ゴシック"/>
+                <a:ea typeface="游ゴシック"/>
+              </a:rPr>
+              <a:pPr algn="l"/>
+              <a:t>リンク先</a:t>
+            </a:fld>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="[1]!テスト用" textlink="[1]Sheet1!$A$1">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19" hidden="1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5495925" y="771525"/>
+            <a:ext cx="1695450" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:fld id="{8C2F3B7E-13C5-42E3-BEB8-A88022108D9E}" type="TxLink">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="游ゴシック"/>
+                <a:ea typeface="游ゴシック"/>
+              </a:rPr>
+              <a:pPr algn="l"/>
+              <a:t>リンク先</a:t>
+            </a:fld>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!テスト用" textlink="[1]Sheet1!$A$1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="561975"/>
+          <a:ext cx="1752600" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:fld id="{8C2F3B7E-13C5-42E3-BEB8-A88022108D9E}" type="TxLink">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:pPr algn="l"/>
+            <a:t>リンク先</a:t>
+          </a:fld>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6048,10 +6265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6060,7 +6277,7 @@
     <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6068,7 +6285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6077,7 +6294,7 @@
         <v>リンク先</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6085,27 +6302,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f>[1]Sheet1!$A$1</f>
+        <v>リンク先</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
@@ -6122,7 +6362,7 @@
           <x14:formula1>
             <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B4 B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6188,18 +6428,18 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -6732,43 +6972,43 @@
       </c>
       <c r="F14" s="6">
         <f ca="1">TODAY()</f>
-        <v>45764</v>
+        <v>45765</v>
       </c>
       <c r="G14" s="6">
         <f ca="1">F14+1</f>
-        <v>45765</v>
+        <v>45766</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ref="H14:O14" ca="1" si="0">G14+1</f>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45768</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45769</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -7012,7 +7252,7 @@
   <dimension ref="B2:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/FindExternalLinksTool/ExternalLinksSample.xlsx
+++ b/FindExternalLinksTool/ExternalLinksSample.xlsx
@@ -19,8 +19,10 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">セル!$A$1:$B$8</definedName>
     <definedName name="サンプル1_リンクあり">[1]Sheet1!$A$1</definedName>
     <definedName name="サンプル2_リンクあり" localSheetId="0">[1]Sheet1!$A$1</definedName>
     <definedName name="サンプル3_リンクなし">セル!$A$2</definedName>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>セル参照</t>
     <rPh sb="2" eb="4">
@@ -543,6 +545,13 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セル参照2</t>
+    <rPh sb="2" eb="4">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4784,7 +4793,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3117"/>
+                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3118"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6001,6 +6010,19 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -6264,17 +6286,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D12"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="39.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6294,61 +6315,91 @@
         <v>リンク先</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="B3" t="str">
+        <f>[1]Sheet1!$A$1</f>
+        <v>リンク先</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B13" s="7" t="str">
         <f>[1]Sheet1!$A$1</f>
         <v>リンク先</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="17" spans="1:2" hidden="1">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="str">
+        <f>[1]Sheet1!$A$1</f>
+        <v>リンク先</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B8">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="セル参照"/>
+        <filter val="値のみ"/>
+        <filter val="入力規則 リスト リンクあり"/>
+        <filter val="入力規則 整数 次の値の間 リンクなし"/>
+        <filter val="入力規則 整数 次の値の間 数式1・2リンク"/>
+        <filter val="入力規則 整数 次の値の間 数式2リンク"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -6362,7 +6413,7 @@
           <x14:formula1>
             <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 B9</xm:sqref>
+          <xm:sqref>B5 B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6371,7 +6422,7 @@
           <x14:formula2>
             <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula2>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6380,7 +6431,7 @@
           <x14:formula2>
             <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula2>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7151,7 +7202,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="greaterThanOrEqual" id="{B5D08171-0D8F-49E5-9022-55CC9077CA1E}">
-            <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7166,13 +7217,13 @@
           <x14:cfRule type="colorScale" priority="11" id="{7CEA17CC-A153-48CC-A4DA-F701262C1144}">
             <x14:colorScale>
               <x14:cfvo type="num">
-                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:color rgb="FFF8696B"/>
               <x14:color rgb="FFFFEB84"/>
@@ -7185,10 +7236,10 @@
           <x14:cfRule type="dataBar" priority="10" id="{AC216764-2809-4EFB-ADAB-98E614BF249F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
-                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:fillColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -7199,7 +7250,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="8" id="{E09C0815-92C0-4FAB-B9EB-FA35F34AB72B}">
-            <xm:f>F9='\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>F9='\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7217,10 +7268,10 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
@@ -7228,8 +7279,8 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{021AFE35-EA44-4F80-BB57-E32BEB18E936}">
-            <xm:f>NOT(ISERROR(SEARCH('\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!,F13)))</xm:f>
-            <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!,F13)))</xm:f>
+            <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>

--- a/FindExternalLinksTool/ExternalLinksSample.xlsx
+++ b/FindExternalLinksTool/ExternalLinksSample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.kaneko\Documents\github\ExcelVBA_Tips\FindExternalLinksTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FF244E-6335-47A9-9F21-24A123531981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="セル" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">セル!$A$1:$B$8</definedName>
@@ -28,22 +28,33 @@
     <definedName name="サンプル3_リンクなし">セル!$A$2</definedName>
     <definedName name="サンプル4_リンクなし" localSheetId="0">セル!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -559,7 +570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -594,19 +605,17 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -695,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,9 +718,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -733,11 +739,49 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -751,7 +795,31 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -782,6 +850,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -796,7 +871,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -854,13 +943,9 @@
           <c:f>[1]Sheet1!$A$1</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>リンク先</c:v>
-            </c:pt>
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -911,43 +996,15 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>[1]Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:pt idx="1">
+                  <c:v>xlCellValue</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -955,35 +1012,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,13 +1050,9 @@
               <c:f>[1]Sheet1!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>リンク先横軸</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1127,13 +1153,9 @@
               <c:f>[1]Sheet1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>リンク先縦軸</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1791,7 +1813,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="[1]Sheet1!$A$24" horiz="1" max="100" page="10" val="81"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="[1]Sheet1!$A$24" horiz="1" max="100" page="10" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2764,13 +2786,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5F207F4F-044A-4BC2-B4F1-EED6FA347C4F}" type="pres">
       <dgm:prSet presAssocID="{F6798B34-2754-43CD-935B-7A9AE57B47ED}" presName="node" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="5">
@@ -2779,13 +2794,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C25F990C-9A01-4810-8FFD-1850F31ADC4B}" type="pres">
       <dgm:prSet presAssocID="{ADD7EACF-A5DB-4B34-A41C-5FE768B8A8A9}" presName="sibTrans" presStyleCnt="0"/>
@@ -2798,13 +2806,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{65E557C4-B5E1-4927-AC69-ED14A03606DB}" type="pres">
       <dgm:prSet presAssocID="{5B770AAA-074A-47F2-8CBA-EFCE3FC6712B}" presName="sibTrans" presStyleCnt="0"/>
@@ -2817,13 +2818,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7ADCD8A2-AE74-4BE6-BFD0-3DEDA2B2C1C4}" type="pres">
       <dgm:prSet presAssocID="{7B7D0759-2B85-445F-9053-40672F470EA0}" presName="sibTrans" presStyleCnt="0"/>
@@ -2836,13 +2830,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CC160AC6-84D5-42DF-914F-552467910924}" type="pres">
       <dgm:prSet presAssocID="{6D146E41-251F-4AD2-AF00-310E446F21E9}" presName="sibTrans" presStyleCnt="0"/>
@@ -2855,27 +2842,20 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{12AC9A03-8E14-48DC-B293-4A48BAE73BF6}" type="presOf" srcId="{704898E3-59F3-46C0-A5F1-4A30F78F5DAB}" destId="{AAC6AA9E-5DA9-4F97-B5D3-DA196605D1A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
     <dgm:cxn modelId="{29A56706-CAF9-4397-8795-5B72B101C2DE}" srcId="{88099483-60A6-40B2-A837-95FC9937CA40}" destId="{704898E3-59F3-46C0-A5F1-4A30F78F5DAB}" srcOrd="1" destOrd="0" parTransId="{77043C34-1EE1-45F7-BBE2-331085A1798C}" sibTransId="{5B770AAA-074A-47F2-8CBA-EFCE3FC6712B}"/>
-    <dgm:cxn modelId="{63F99ECD-207B-419C-8582-484E82015C11}" type="presOf" srcId="{F5C85B4C-F4A6-4E05-8487-7BD3CF7D066D}" destId="{3D611F0E-F90B-42A9-953F-E5ED5F2B5189}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{D77DD60D-47D7-4E6E-ACD0-A7E0E4118D93}" type="presOf" srcId="{8F3FA60C-A98A-45CC-B595-07FF631B88A6}" destId="{12BC1FFC-B136-4340-9EE2-3159BB340816}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
     <dgm:cxn modelId="{FF659B14-9082-4C1E-85AF-18E8CD92A04E}" type="presOf" srcId="{F6798B34-2754-43CD-935B-7A9AE57B47ED}" destId="{5F207F4F-044A-4BC2-B4F1-EED6FA347C4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
-    <dgm:cxn modelId="{D18C4293-BDCE-4D91-B600-11617D4CB809}" srcId="{88099483-60A6-40B2-A837-95FC9937CA40}" destId="{8F3FA60C-A98A-45CC-B595-07FF631B88A6}" srcOrd="3" destOrd="0" parTransId="{EFBCEF3C-AB72-40DE-8F24-A0E6D6F32FB1}" sibTransId="{6D146E41-251F-4AD2-AF00-310E446F21E9}"/>
+    <dgm:cxn modelId="{E06CCE2B-EB01-4A77-86B0-2FF99347580A}" srcId="{88099483-60A6-40B2-A837-95FC9937CA40}" destId="{DF528ABF-3FD7-44CF-BC5D-D49A2E38EAC7}" srcOrd="4" destOrd="0" parTransId="{CFADE67A-D9F4-4F6A-B295-105EAFF419FC}" sibTransId="{EA8A801F-6C1C-448A-9C37-AAAD31CE6CC4}"/>
     <dgm:cxn modelId="{3969E95D-57EC-40CE-B93B-8B77EF386DE5}" srcId="{88099483-60A6-40B2-A837-95FC9937CA40}" destId="{F6798B34-2754-43CD-935B-7A9AE57B47ED}" srcOrd="0" destOrd="0" parTransId="{807405F1-3580-4E25-B3BA-FCE7C1C0EC77}" sibTransId="{ADD7EACF-A5DB-4B34-A41C-5FE768B8A8A9}"/>
-    <dgm:cxn modelId="{12AC9A03-8E14-48DC-B293-4A48BAE73BF6}" type="presOf" srcId="{704898E3-59F3-46C0-A5F1-4A30F78F5DAB}" destId="{AAC6AA9E-5DA9-4F97-B5D3-DA196605D1A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{E97C7182-A753-4855-B86B-22212309D303}" type="presOf" srcId="{88099483-60A6-40B2-A837-95FC9937CA40}" destId="{D301442C-18A0-4230-92E6-9DEE50A2316C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
     <dgm:cxn modelId="{95702F83-2EF1-4899-B413-174E0F30C05C}" type="presOf" srcId="{DF528ABF-3FD7-44CF-BC5D-D49A2E38EAC7}" destId="{90A7375C-73DE-4DB7-89AD-380BCB350A4D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
     <dgm:cxn modelId="{3CD4C78D-7A35-4315-A186-9B21EF2B068F}" srcId="{88099483-60A6-40B2-A837-95FC9937CA40}" destId="{F5C85B4C-F4A6-4E05-8487-7BD3CF7D066D}" srcOrd="2" destOrd="0" parTransId="{021331F2-E50E-4608-8CFB-03DA641BDC75}" sibTransId="{7B7D0759-2B85-445F-9053-40672F470EA0}"/>
-    <dgm:cxn modelId="{E06CCE2B-EB01-4A77-86B0-2FF99347580A}" srcId="{88099483-60A6-40B2-A837-95FC9937CA40}" destId="{DF528ABF-3FD7-44CF-BC5D-D49A2E38EAC7}" srcOrd="4" destOrd="0" parTransId="{CFADE67A-D9F4-4F6A-B295-105EAFF419FC}" sibTransId="{EA8A801F-6C1C-448A-9C37-AAAD31CE6CC4}"/>
-    <dgm:cxn modelId="{E97C7182-A753-4855-B86B-22212309D303}" type="presOf" srcId="{88099483-60A6-40B2-A837-95FC9937CA40}" destId="{D301442C-18A0-4230-92E6-9DEE50A2316C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
-    <dgm:cxn modelId="{D77DD60D-47D7-4E6E-ACD0-A7E0E4118D93}" type="presOf" srcId="{8F3FA60C-A98A-45CC-B595-07FF631B88A6}" destId="{12BC1FFC-B136-4340-9EE2-3159BB340816}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
+    <dgm:cxn modelId="{D18C4293-BDCE-4D91-B600-11617D4CB809}" srcId="{88099483-60A6-40B2-A837-95FC9937CA40}" destId="{8F3FA60C-A98A-45CC-B595-07FF631B88A6}" srcOrd="3" destOrd="0" parTransId="{EFBCEF3C-AB72-40DE-8F24-A0E6D6F32FB1}" sibTransId="{6D146E41-251F-4AD2-AF00-310E446F21E9}"/>
+    <dgm:cxn modelId="{63F99ECD-207B-419C-8582-484E82015C11}" type="presOf" srcId="{F5C85B4C-F4A6-4E05-8487-7BD3CF7D066D}" destId="{3D611F0E-F90B-42A9-953F-E5ED5F2B5189}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
     <dgm:cxn modelId="{699B7E1B-A022-4584-8319-7672A043BA78}" type="presParOf" srcId="{D301442C-18A0-4230-92E6-9DEE50A2316C}" destId="{5F207F4F-044A-4BC2-B4F1-EED6FA347C4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
     <dgm:cxn modelId="{8E6EDFFC-D92D-48D4-8485-60EF5B9F5538}" type="presParOf" srcId="{D301442C-18A0-4230-92E6-9DEE50A2316C}" destId="{C25F990C-9A01-4810-8FFD-1850F31ADC4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
     <dgm:cxn modelId="{76707FD9-2CB2-4BFB-8768-A718F693950F}" type="presParOf" srcId="{D301442C-18A0-4230-92E6-9DEE50A2316C}" destId="{AAC6AA9E-5DA9-4F97-B5D3-DA196605D1A0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/default"/>
@@ -2959,7 +2939,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="933450">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2969,6 +2949,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2100" kern="1200"/>
         </a:p>
@@ -3033,7 +3014,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="933450">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3043,6 +3024,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2100" kern="1200"/>
         </a:p>
@@ -3107,7 +3089,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="933450">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3117,6 +3099,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2100" kern="1200"/>
         </a:p>
@@ -3181,7 +3164,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="933450">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3191,6 +3174,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2100" kern="1200"/>
         </a:p>
@@ -3255,7 +3239,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="933450">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3265,6 +3249,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2100" kern="1200"/>
         </a:p>
@@ -4476,7 +4461,13 @@
     </xdr:to>
     <xdr:sp macro="[1]!テスト用" textlink="[1]Sheet1!$A$1">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4518,7 +4509,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>リンク先</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4541,7 +4532,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4595,7 +4592,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4608,7 +4611,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="[1]!テスト用" textlink="[1]Sheet1!$A$1">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4650,7 +4659,7 @@
                 <a:ea typeface="游ゴシック"/>
               </a:rPr>
               <a:pPr algn="l"/>
-              <a:t>リンク先</a:t>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -4658,7 +4667,13 @@
       </xdr:sp>
       <xdr:sp macro="[1]!テスト用" textlink="[1]Sheet1!$A$1">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4700,7 +4715,7 @@
                 <a:ea typeface="游ゴシック"/>
               </a:rPr>
               <a:pPr algn="l"/>
-              <a:t>リンク先</a:t>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -4724,7 +4739,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="[1]!テスト用">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="図表 6"/>
+        <xdr:cNvPr id="7" name="図表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4754,7 +4775,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4788,12 +4815,18 @@
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="14" name="図 13"/>
+            <xdr:cNvPr id="14" name="図 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sheet2!$D$2:$D$16" spid="_x0000_s3118"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s3134"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4845,7 +4878,13 @@
     </xdr:to>
     <xdr:pic macro="[1]!テスト用">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4907,6 +4946,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3090"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000120C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4952,7 +4994,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4965,7 +5013,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="[1]!テスト用" textlink="[1]Sheet1!$A$1">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5007,7 +5061,7 @@
                 <a:ea typeface="游ゴシック"/>
               </a:rPr>
               <a:pPr algn="l"/>
-              <a:t>リンク先</a:t>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -5015,7 +5069,13 @@
       </xdr:sp>
       <xdr:sp macro="[1]!テスト用" textlink="[1]Sheet1!$A$1">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="正方形/長方形 19" hidden="1"/>
+          <xdr:cNvPr id="20" name="正方形/長方形 19" hidden="1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5057,7 +5117,7 @@
                 <a:ea typeface="游ゴシック"/>
               </a:rPr>
               <a:pPr algn="l"/>
-              <a:t>リンク先</a:t>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -5081,7 +5141,13 @@
     </xdr:to>
     <xdr:sp macro="[1]!テスト用" textlink="[1]Sheet1!$A$1">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23" hidden="1"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5123,7 +5189,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>リンク先</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5158,6 +5224,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5178,22 +5247,13 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="游ゴシック"/>
-                  <a:ea typeface="游ゴシック"/>
-                </a:rPr>
-                <a:t>リンク先</a:t>
-              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -5223,6 +5283,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5278,6 +5341,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5362,6 +5428,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5404,7 +5473,13 @@
         </xdr:to>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="2" name="グループ化 1"/>
+            <xdr:cNvPr id="2" name="グループ化 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -5421,6 +5496,9 @@
                 <a:extLst>
                   <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                     <a14:compatExt spid="_x0000_s4101"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005100000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5485,6 +5563,9 @@
                   <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                     <a14:compatExt spid="_x0000_s4102"/>
                   </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006100000}"/>
+                  </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
               <xdr:cNvSpPr/>
@@ -5547,6 +5628,9 @@
                 <a:extLst>
                   <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                     <a14:compatExt spid="_x0000_s4103"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007100000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5632,6 +5716,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5658,25 +5745,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI"/>
-                  <a:ea typeface="Meiryo UI"/>
-                </a:rPr>
-                <a:t>リンク先</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -5704,6 +5772,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5737,25 +5808,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="游ゴシック"/>
-                  <a:ea typeface="游ゴシック"/>
-                </a:rPr>
-                <a:t>リンク先</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -5783,6 +5835,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5830,6 +5885,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5886,6 +5944,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4108"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5923,12 +5984,14 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet3"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="リンク先ファイル"/>
     </sheetNames>
     <definedNames>
@@ -5936,88 +5999,14 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>リンク先</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-        </row>
         <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>リンク先縦軸</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>リンク先横軸</v>
+          <cell r="A3" t="str">
+            <v>xlCellValue</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6285,11 +6274,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6310,18 +6301,18 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <f>[1]Sheet1!$A$1</f>
-        <v>リンク先</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <f>[1]Sheet1!$A$1</f>
-        <v>リンク先</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6356,32 +6347,32 @@
       <c r="A10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="6">
         <f>[1]Sheet1!$A$1</f>
-        <v>リンク先</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="17" spans="1:2" hidden="1">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <f>[1]Sheet1!$A$1</f>
-        <v>リンク先</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B8">
+  <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="セル参照"/>
@@ -6398,54 +6389,35 @@
     <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>1</formula1>
+      <formula2>#REF!</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>#REF!</formula1>
+      <formula2>#REF!</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet2'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5 B10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>1</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet2'!#REF!</xm:f>
-          </x14:formula2>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet2'!#REF!</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>'C:\テスト用\[リンク先ファイル.xlsx]Sheet2'!#REF!</xm:f>
-          </x14:formula2>
-          <xm:sqref>B7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6479,21 +6451,21 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
@@ -6540,7 +6512,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3">
@@ -6585,7 +6557,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3">
@@ -6632,13 +6604,13 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -6679,13 +6651,13 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -6726,7 +6698,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="3">
@@ -6774,7 +6746,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="3">
@@ -6821,13 +6793,13 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -6868,7 +6840,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="3">
@@ -6911,7 +6883,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="3">
@@ -6959,7 +6931,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="3">
@@ -7006,7 +6978,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="3">
@@ -7021,49 +6993,49 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f ca="1">TODAY()</f>
-        <v>45765</v>
-      </c>
-      <c r="G14" s="6">
+        <v>46045</v>
+      </c>
+      <c r="G14" s="5">
         <f ca="1">F14+1</f>
-        <v>45766</v>
-      </c>
-      <c r="H14" s="6">
+        <v>46046</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" ref="H14:O14" ca="1" si="0">G14+1</f>
-        <v>45767</v>
-      </c>
-      <c r="I14" s="6">
+        <v>46047</v>
+      </c>
+      <c r="I14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
-      </c>
-      <c r="J14" s="6">
+        <v>46048</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45769</v>
-      </c>
-      <c r="K14" s="6">
+        <v>46049</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
-      </c>
-      <c r="L14" s="6">
+        <v>46050</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45771</v>
-      </c>
-      <c r="M14" s="6">
+        <v>46051</v>
+      </c>
+      <c r="M14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
-      </c>
-      <c r="N14" s="6">
+        <v>46052</v>
+      </c>
+      <c r="N14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="O14" s="6">
+        <v>46053</v>
+      </c>
+      <c r="O14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45774</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="3">
@@ -7162,38 +7134,38 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F3:O3">
-    <cfRule type="aboveAverage" dxfId="10" priority="14"/>
+    <cfRule type="aboveAverage" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:O4">
-    <cfRule type="containsBlanks" dxfId="9" priority="13">
+    <cfRule type="containsBlanks" dxfId="20" priority="13">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:O8">
-    <cfRule type="containsErrors" dxfId="8" priority="9">
+    <cfRule type="containsErrors" dxfId="18" priority="9">
       <formula>ISERROR(F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:O11">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="6">
       <formula>LEN(TRIM(F11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:O12">
-    <cfRule type="notContainsErrors" dxfId="6" priority="5">
+    <cfRule type="notContainsErrors" dxfId="15" priority="5">
       <formula>NOT(ISERROR(F12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:O14">
-    <cfRule type="timePeriod" dxfId="5" priority="3" timePeriod="tomorrow">
+    <cfRule type="timePeriod" dxfId="13" priority="3" timePeriod="tomorrow">
       <formula>FLOOR(F14,1)=TODAY()+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:O15">
-    <cfRule type="top10" dxfId="4" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="12" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:O16">
-    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7201,8 +7173,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="greaterThanOrEqual" id="{B5D08171-0D8F-49E5-9022-55CC9077CA1E}">
-            <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="12" operator="greaterThanOrEqual" id="{4269F190-CAE8-4CC4-9EEA-FFC5C8F0B358}">
+            <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7217,13 +7189,13 @@
           <x14:cfRule type="colorScale" priority="11" id="{7CEA17CC-A153-48CC-A4DA-F701262C1144}">
             <x14:colorScale>
               <x14:cfvo type="num">
-                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:color rgb="FFF8696B"/>
               <x14:color rgb="FFFFEB84"/>
@@ -7236,10 +7208,10 @@
           <x14:cfRule type="dataBar" priority="10" id="{AC216764-2809-4EFB-ADAB-98E614BF249F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
-                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:fillColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -7250,7 +7222,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="8" id="{E09C0815-92C0-4FAB-B9EB-FA35F34AB72B}">
-            <xm:f>F9='\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>F9='\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7268,19 +7240,19 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+                <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F10:O10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{021AFE35-EA44-4F80-BB57-E32BEB18E936}">
-            <xm:f>NOT(ISERROR(SEARCH('\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!,F13)))</xm:f>
-            <xm:f>'\\192.168.20.240\share-ChiEne\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{B64BF0E7-18F6-4F74-9D7C-8DF2652A47F8}">
+            <xm:f>NOT(ISERROR(SEARCH('\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!,F13)))</xm:f>
+            <xm:f>'\テスト用\[リンク先ファイル.xlsx]Sheet1'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7298,11 +7270,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -7385,7 +7357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:Q15"/>
   <sheetViews>

--- a/FindExternalLinksTool/ExternalLinksSample.xlsx
+++ b/FindExternalLinksTool/ExternalLinksSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.kaneko\Documents\github\ExcelVBA_Tips\FindExternalLinksTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FF244E-6335-47A9-9F21-24A123531981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6DFE48-13F2-4A95-AA4E-435FEFB47800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="セル" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +616,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -739,90 +745,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -943,6 +866,9 @@
           <c:f>[1]Sheet1!$A$1</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>テスト</c:v>
+            </c:pt>
           </c:strCache>
         </c:strRef>
       </c:tx>
@@ -996,15 +922,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet1!$A$2:$A$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>xlCellValue</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1012,8 +966,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4509,7 +4490,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t> </a:t>
+            <a:t>テスト</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4659,7 +4640,7 @@
                 <a:ea typeface="游ゴシック"/>
               </a:rPr>
               <a:pPr algn="l"/>
-              <a:t> </a:t>
+              <a:t>テスト</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -4715,7 +4696,7 @@
                 <a:ea typeface="游ゴシック"/>
               </a:rPr>
               <a:pPr algn="l"/>
-              <a:t> </a:t>
+              <a:t>テスト</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -4826,7 +4807,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s3134"/>
+                  <a14:cameraTool cellRange="[1]Sheet3!$A$1:$A$15" spid="_x0000_s3137"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4981,16 +4962,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5005,7 +4986,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7639050" y="1514475"/>
+          <a:off x="7867650" y="1704975"/>
           <a:ext cx="2390775" cy="1000125"/>
           <a:chOff x="4800600" y="476250"/>
           <a:chExt cx="2390775" cy="1000125"/>
@@ -5061,7 +5042,7 @@
                 <a:ea typeface="游ゴシック"/>
               </a:rPr>
               <a:pPr algn="l"/>
-              <a:t> </a:t>
+              <a:t>テスト</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -5117,7 +5098,7 @@
                 <a:ea typeface="游ゴシック"/>
               </a:rPr>
               <a:pPr algn="l"/>
-              <a:t> </a:t>
+              <a:t>テスト</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -5189,7 +5170,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t> </a:t>
+            <a:t>テスト</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5247,13 +5228,22 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>テスト</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -5745,6 +5735,25 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI"/>
+                  <a:ea typeface="Meiryo UI"/>
+                </a:rPr>
+                <a:t>テスト</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -5808,6 +5817,25 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="41148" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="游ゴシック"/>
+                  <a:ea typeface="游ゴシック"/>
+                </a:rPr>
+                <a:t>テスト</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -5992,21 +6020,69 @@
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet3"/>
-      <sheetName val="リンク先ファイル"/>
     </sheetNames>
     <definedNames>
       <definedName name="テスト用"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>テスト</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>xlCellValue</v>
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6278,9 +6354,7 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6301,18 +6375,18 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
         <f>[1]Sheet1!$A$1</f>
-        <v>0</v>
+        <v>テスト</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
         <f>[1]Sheet1!$A$1</f>
-        <v>0</v>
+        <v>テスト</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6355,9 +6429,9 @@
       <c r="A13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="6" t="str">
         <f>[1]Sheet1!$A$1</f>
-        <v>0</v>
+        <v>テスト</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -6366,9 +6440,9 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="str">
         <f>[1]Sheet1!$A$1</f>
-        <v>0</v>
+        <v>テスト</v>
       </c>
     </row>
   </sheetData>
@@ -6416,8 +6490,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7134,38 +7208,38 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F3:O3">
-    <cfRule type="aboveAverage" dxfId="21" priority="14"/>
+    <cfRule type="aboveAverage" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:O4">
-    <cfRule type="containsBlanks" dxfId="20" priority="13">
+    <cfRule type="containsBlanks" dxfId="9" priority="13">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:O8">
-    <cfRule type="containsErrors" dxfId="18" priority="9">
+    <cfRule type="containsErrors" dxfId="7" priority="9">
       <formula>ISERROR(F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:O11">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(F11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:O12">
-    <cfRule type="notContainsErrors" dxfId="15" priority="5">
+    <cfRule type="notContainsErrors" dxfId="4" priority="5">
       <formula>NOT(ISERROR(F12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:O14">
-    <cfRule type="timePeriod" dxfId="13" priority="3" timePeriod="tomorrow">
+    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="tomorrow">
       <formula>FLOOR(F14,1)=TODAY()+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:O15">
-    <cfRule type="top10" dxfId="12" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:O16">
-    <cfRule type="uniqueValues" dxfId="11" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7274,8 +7348,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:V24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
